--- a/9feb/Netflix-Movies-Sample-Data.xlsx
+++ b/9feb/Netflix-Movies-Sample-Data.xlsx
@@ -1,48 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28412"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Music\Excel Data for Analysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A32EFA5E-2465-4965-818C-2695E1E899BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0074F77B-DFA4-42A9-BDFE-E7434569E027}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Movies" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Movies" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="124">
-  <si>
-    <t>Excel Sample Data</t>
-  </si>
-  <si>
-    <t>Netflix Movies Data</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+  <si>
+    <t xml:space="preserve">Excel Sample Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netflix Movies Data</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +28,7 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Age Rating</t>
+    <t xml:space="preserve">Age Rating</t>
   </si>
   <si>
     <t>Duration</t>
@@ -60,7 +37,10 @@
     <t>Category</t>
   </si>
   <si>
-    <t>IMDb Rating</t>
+    <t xml:space="preserve">IMDb Rating</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
   <si>
     <t xml:space="preserve">Casablanca </t>
@@ -75,6 +55,9 @@
     <t xml:space="preserve"> Drama/Romance </t>
   </si>
   <si>
+    <t>India</t>
+  </si>
+  <si>
     <t xml:space="preserve">Psycho </t>
   </si>
   <si>
@@ -87,6 +70,9 @@
     <t xml:space="preserve"> Horror/Thriller </t>
   </si>
   <si>
+    <t>Canada</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Godfather </t>
   </si>
   <si>
@@ -105,6 +91,9 @@
     <t xml:space="preserve"> Action/Adventure </t>
   </si>
   <si>
+    <t>Japan</t>
+  </si>
+  <si>
     <t xml:space="preserve">E.T. the Extra-Terrestrial </t>
   </si>
   <si>
@@ -123,6 +112,9 @@
     <t xml:space="preserve"> Action/Sci-Fi </t>
   </si>
   <si>
+    <t>Australia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Forrest Gump </t>
   </si>
   <si>
@@ -132,6 +124,9 @@
     <t xml:space="preserve"> 142 mins </t>
   </si>
   <si>
+    <t>SouthAfrica</t>
+  </si>
+  <si>
     <t xml:space="preserve">Titanic </t>
   </si>
   <si>
@@ -144,6 +139,9 @@
     <t xml:space="preserve"> 136 mins </t>
   </si>
   <si>
+    <t>USA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gladiator </t>
   </si>
   <si>
@@ -180,6 +178,9 @@
     <t xml:space="preserve"> Action/Crime </t>
   </si>
   <si>
+    <t>SriLanka</t>
+  </si>
+  <si>
     <t xml:space="preserve">Inception </t>
   </si>
   <si>
@@ -243,6 +244,9 @@
     <t xml:space="preserve"> 123 mins </t>
   </si>
   <si>
+    <t>WestIndies</t>
+  </si>
+  <si>
     <t xml:space="preserve">Black Panther </t>
   </si>
   <si>
@@ -253,6 +257,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 122 mins </t>
+  </si>
+  <si>
+    <t>Pakistan</t>
   </si>
   <si>
     <t xml:space="preserve">Parasite </t>
@@ -414,47 +421,41 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF272760"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="14.000000"/>
       <color rgb="FF272760"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13.000000"/>
+      <color rgb="FF272760"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="12.000000"/>
+      <color indexed="65"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -467,32 +468,32 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFD9E1F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF272760"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF272760"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="3">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="medium">
         <color rgb="FF272760"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -507,25 +508,25 @@
       <bottom style="thin">
         <color rgb="FFD9D9D9"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="3" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -538,15 +539,295 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -588,108 +869,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Aptos Display"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Aptos Narrow"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -697,7 +884,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -723,7 +910,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -775,16 +962,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -800,7 +999,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -832,7 +1031,7 @@
   </a:themeElements>
   <a:objectDefaults>
     <a:lnDef>
-      <a:spPr/>
+      <a:spPr bwMode="auto"/>
       <a:bodyPr/>
       <a:lstStyle/>
       <a:style>
@@ -851,56 +1050,49 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE86D3C3-3487-4F4F-AFA1-3CB523C46F32}">
-  <dimension ref="B2:G56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView showGridLines="0" topLeftCell="C40" zoomScale="100" workbookViewId="0">
+      <selection activeCell="N16" activeCellId="0" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="2"/>
+    <col customWidth="1" min="1" max="1" style="1" width="4.42578125"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="46"/>
+    <col customWidth="1" min="3" max="3" style="1" width="13.140625"/>
+    <col customWidth="1" min="4" max="4" style="1" width="12.7109375"/>
+    <col customWidth="1" min="5" max="5" style="1" width="11.7109375"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" style="1" width="21.85546875"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" style="1" width="13.28515625"/>
+    <col min="8" max="16384" style="1" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1">
-      <c r="B2" s="1" t="s">
+    <row r="2" ht="18.75">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="4" spans="2:7" ht="18.600000000000001" thickBot="1">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="4" ht="18.75">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="6" spans="2:7" ht="15.6">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="6" ht="16.5">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -919,1022 +1111,1192 @@
       <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="H6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5">
         <v>1942</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="5">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>5.2999999999999998</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5">
         <v>1960</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G8" s="5">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
+        <v>5.2999999999999998</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5">
         <v>1972</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" s="5">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5">
         <v>1977</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G10" s="5">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5">
         <v>1982</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G11" s="5">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+        <v>7.7999999999999998</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5">
         <v>1991</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G12" s="5">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <v>5.2999999999999998</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5">
         <v>1994</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="5">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="H13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="B14" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5">
         <v>1997</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14" s="5">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
+        <v>7.7999999999999998</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5">
         <v>1999</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G15" s="5">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="H15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C16" s="5">
         <v>2000</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G16" s="5">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>5.2999999999999998</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C17" s="5">
         <v>2001</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G17" s="5">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="H17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="B18" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C18" s="5">
         <v>2001</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G18" s="5">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="B19" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C19" s="5">
         <v>2008</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G19" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="H19" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C20" s="5">
         <v>2010</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G20" s="5">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="H20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="B21" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C21" s="5">
         <v>2012</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G21" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="H21" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="B22" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C22" s="5">
         <v>2012</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G22" s="5">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>8.4000000000000004</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="B23" s="5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C23" s="5">
         <v>2013</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G23" s="5">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
+        <v>7.4000000000000004</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="B24" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C24" s="5">
         <v>2014</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G24" s="5">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="B25" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C25" s="5">
         <v>2015</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G25" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="2:7">
+      <c r="H25" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="B26" s="5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C26" s="5">
         <v>2016</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G26" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="2:7">
+      <c r="H26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="B27" s="5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C27" s="5">
         <v>2017</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G27" s="5">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>7.7000000000000002</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="B28" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C28" s="5">
         <v>2017</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G28" s="5">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>5.4000000000000004</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="B29" s="5" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C29" s="5">
         <v>2018</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G29" s="5">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
+        <v>5.4000000000000004</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="B30" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C30" s="5">
         <v>2019</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G30" s="5">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>8.4000000000000004</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="B31" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C31" s="5">
         <v>2019</v>
       </c>
       <c r="D31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="5">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="5">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+    </row>
+    <row r="32">
       <c r="B32" s="5" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C32" s="5">
         <v>1994</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G32" s="5">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="33" spans="2:7">
+      <c r="H32" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="B33" s="5" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C33" s="5">
         <v>1994</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G33" s="5">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+        <v>8.9000000000000004</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="B34" s="5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C34" s="5">
         <v>1993</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="5">
+        <v>8.9000000000000004</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" s="5">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+    </row>
+    <row r="35">
       <c r="B35" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C35" s="5">
         <v>1991</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="5">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="5">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
+    </row>
+    <row r="36">
       <c r="B36" s="5" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C36" s="5">
         <v>1999</v>
       </c>
       <c r="D36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="5">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="5">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
+    </row>
+    <row r="37">
       <c r="B37" s="5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C37" s="5">
         <v>1999</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E37" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="G37" s="5">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="38" spans="2:7">
+      <c r="H37" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="B38" s="5" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C38" s="5">
         <v>2006</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G38" s="5">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
+        <v>5.2999999999999998</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="B39" s="5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C39" s="5">
         <v>2006</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G39" s="5">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
+        <v>5.2999999999999998</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="B40" s="5" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C40" s="5">
         <v>2007</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G40" s="5">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
+        <v>8.0999999999999996</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="B41" s="5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C41" s="5">
         <v>2008</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G41" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:7">
+      <c r="H41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="B42" s="5" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C42" s="5">
         <v>2010</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G42" s="5">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7">
+        <v>7.7000000000000002</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="B43" s="5" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C43" s="5">
         <v>2014</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G43" s="5">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7">
+        <v>8.0999999999999996</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="B44" s="5" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C44" s="5">
         <v>2014</v>
       </c>
       <c r="D44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44" s="5">
+        <v>5.2999999999999998</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G44" s="5">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
+    </row>
+    <row r="45">
       <c r="B45" s="5" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C45" s="5">
         <v>2014</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G45" s="5">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7">
+        <v>7.7000000000000002</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="B46" s="5" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C46" s="5">
         <v>2015</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G46" s="5">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7">
+        <v>8.0999999999999996</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="B47" s="5" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C47" s="5">
         <v>2016</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G47" s="5">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7">
+        <v>7.4000000000000004</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="B48" s="5" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C48" s="5">
         <v>2017</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G48" s="5">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="49" spans="2:7">
+      <c r="H48" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="B49" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C49" s="5">
         <v>2018</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G49" s="5">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7">
+        <v>7.7000000000000002</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="B50" s="5" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C50" s="5">
         <v>2019</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G50" s="5">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7">
+        <v>7.5999999999999996</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="B51" s="5" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C51" s="5">
         <v>2019</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G51" s="5">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="52" spans="2:7">
+      <c r="H51" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="B52" s="5" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C52" s="5">
         <v>2017</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G52" s="5">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7">
+        <v>7.7999999999999998</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="B53" s="5" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C53" s="5">
         <v>2015</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G53" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="2:7">
+      <c r="H53" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="B54" s="5" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C54" s="5">
         <v>2016</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G54" s="5">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7">
+        <v>7.9000000000000004</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="B55" s="5" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C55" s="5">
         <v>2013</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G55" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="2:7">
+      <c r="H55" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="B56" s="5" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C56" s="5">
         <v>2014</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G56" s="5">
-        <v>8.1</v>
-      </c>
+        <v>8.0999999999999996</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="H60" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EFAA12-A7C6-4778-B2E3-47AF3178F96F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>